--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Задачи" sheetId="1" r:id="rId1"/>
     <sheet name="Глобальные задачи" sheetId="3" r:id="rId2"/>
     <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Полурейс формирования</t>
   </si>
@@ -95,225 +95,142 @@
     <t>Полурейс формирования на пустой путь</t>
   </si>
   <si>
-    <t xml:space="preserve">Движение;
-Сцепка;
-Расцепка;
-Движение;
-Сцепка;
-Проталкивание; 
-Расцепка;
-Движение кон;
-</t>
-  </si>
-  <si>
     <t>Уборка не всех вагонов с грузового фронта</t>
   </si>
   <si>
     <t>Уборка не всех вагонов с грузового фронта на пустой путь</t>
   </si>
   <si>
-    <t xml:space="preserve">Движение в цех;
-Ожидание;
-Движение;
-Сцепка;
-Движение;
-Расцепка;
-Движение кон;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Движение;
-Сцепка;
-Движение в цех;
-Ожидание;
-Движение;
-Сцепка;
-Проталкивание;
-Расцепка;
-Движение кон;
-</t>
-  </si>
-  <si>
     <t>Уборка вагонов с грузового фронта на пустой путь</t>
   </si>
   <si>
-    <t xml:space="preserve">Движение в цех;
-Ожидание;
-Движение;
-Сцепка;
-Движение;
-Сцепка;
-Проталкивание;
-Расцепка;
-Движение кон;
-</t>
-  </si>
-  <si>
-    <t>Движение;
-Терминирование;
-Ожидание;
-Создание;
+    <t>Отправка всех вагонов с грузового фронта на грузовой фронт</t>
+  </si>
+  <si>
+    <t>Отправка всех вагонов с грузового фронта на пустой грузовой фронт</t>
+  </si>
+  <si>
+    <t>Отправка с грузового фронта на пустой грузовой фронт</t>
+  </si>
+  <si>
+    <t>Движение кон</t>
+  </si>
+  <si>
+    <t>Движение в цех</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Состав расцепляется на 2 части </t>
+  </si>
+  <si>
+    <t>Состав двигается по целевому пути для того чтобы целеком уместиться на пути</t>
+  </si>
+  <si>
+    <t>Локомотив движется к пути ожидания следующей задачи. Если есть текущая задача, то локомотив  движется сразу к ней</t>
+  </si>
+  <si>
+    <t>Движение состава/локомотива к целевому пути. Остановка на целевом пути будет в определенной точке, так как необходимо получение разрешения на въезд</t>
+  </si>
+  <si>
+    <t>Состав/локомотив создается и добавляется в блоки задержки для ожидания дальнейшего задания</t>
+  </si>
+  <si>
+    <t>Состав/локомотив движется до целевого пути</t>
+  </si>
+  <si>
+    <t>Состав/локомотив сцепляется с составом, который стоит на целевом пути</t>
+  </si>
+  <si>
+    <t>Состав/локомотив стоит в ожидании техн. Задеркжи</t>
+  </si>
+  <si>
+    <t>Состав/локомотив покидает модель и освобождает коллекцию агентов</t>
+  </si>
+  <si>
+    <t>Формирование состава</t>
+  </si>
+  <si>
+    <t>Глобальные задачи - задачи, которые состоят из множества средних задач</t>
+  </si>
+  <si>
+    <t>Расчистка под прибытие</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Отправка на фронт</t>
+  </si>
+  <si>
+    <t>Состоит из нескольких задач "Полурейс формирования" и задачи отправка на грузовой фронт</t>
+  </si>
+  <si>
+    <t>Отправка всех вагонов на грузовой фронт</t>
+  </si>
+  <si>
+    <t>Состоит из нескольких задач "Полурейс формирования" и задачи прибытие состава на станцию</t>
+  </si>
+  <si>
+    <t>Состоит из нескольких задач "Полурейс формирования" и задачи отправка состава со станции</t>
+  </si>
+  <si>
+    <t>Движение;Сцепка;Движение;Терминирование;Ожидание;Создание;Движение кон</t>
+  </si>
+  <si>
+    <t>Полрейс формирования всех вагонов с пути</t>
+  </si>
+  <si>
+    <t>Движение;Терминирование;Ожидание;Создание;Движение;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение;Терминирование;Ожидание;Создание;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение в цех;Сцепка;Движение;Ожидание;Движение;Сцепка;Проталкивание;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение в цех;Ожидание;Движение;Сцепка;Расцепка;Движение в цех;Ожидание;Движение;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение в цех;Ожидание;
+Движение;Сцепка;Движение в цех;Ожидание;Движение;Сцепка;Проталкивание;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение в цех;Ожидание;Движение;Сцепка;Движение в цех;Ожидание;Движение;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение;Сцепка;Расцепка;Движение в цех;Ожидание;Движение;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение в цех;Ожидание;Движение;Сцепка;Движение;Сцепка;Проталкивание;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение;Сцепка;Движение в цех;Ожидание;Движение;Сцепка;Проталкивание;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение в цех;Ожидание;Движение;Сцепка;Движение;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение;Сцепка;Расцепка;Движение;Сцепка;Проталкивание;
+Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение;Сцепка;Движение;Сцепка;Проталкивание;Расцепка;
 Движение кон</t>
   </si>
   <si>
-    <t>Движение;
-Ожидание;</t>
-  </si>
-  <si>
-    <t>Отправка всех вагонов с грузового фронта на грузовой фронт</t>
-  </si>
-  <si>
-    <t>Отправка всех вагонов с грузового фронта на пустой грузовой фронт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Движение в цех;
-Ожидание;
-Движение;
-Сцепка;
-Движение в цех;
-Ожидание;
-Движение;
-Расцепка;
-Движение кон
-</t>
-  </si>
-  <si>
-    <t>Отправка с грузового фронта на пустой грузовой фронт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Движение в цех;
-Ожидание;
-Движение;
-Сцепка;
-Расцепка;
-Движение в цех;
-Ожидание;
-Движение;
-Расцепка;
-Движение кон;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Движение в цех;
-Ожидание;
-Движение;
-Сцепка;
-Движение в цех;
-Ожидание;
-Движение;
-Сцепка;
-Проталкивание;
-Расцепка;
-Движение кон
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Движение в цех;
-Сцепка;
-Движение;
-Ожидание;
-Движение;
-Сцепка;
-Проталкивание;
-Расцепка;
-Движение кон
-</t>
-  </si>
-  <si>
-    <t>Движение кон</t>
-  </si>
-  <si>
-    <t>Движение в цех</t>
-  </si>
-  <si>
-    <t>Значение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Состав расцепляется на 2 части </t>
-  </si>
-  <si>
-    <t>Состав двигается по целевому пути для того чтобы целеком уместиться на пути</t>
-  </si>
-  <si>
-    <t>Локомотив движется к пути ожидания следующей задачи. Если есть текущая задача, то локомотив  движется сразу к ней</t>
-  </si>
-  <si>
-    <t>Движение состава/локомотива к целевому пути. Остановка на целевом пути будет в определенной точке, так как необходимо получение разрешения на въезд</t>
-  </si>
-  <si>
-    <t>Состав/локомотив создается и добавляется в блоки задержки для ожидания дальнейшего задания</t>
-  </si>
-  <si>
-    <t>Состав/локомотив движется до целевого пути</t>
-  </si>
-  <si>
-    <t>Состав/локомотив сцепляется с составом, который стоит на целевом пути</t>
-  </si>
-  <si>
-    <t>Состав/локомотив стоит в ожидании техн. Задеркжи</t>
-  </si>
-  <si>
-    <t>Состав/локомотив покидает модель и освобождает коллекцию агентов</t>
-  </si>
-  <si>
-    <t>Формирование состава</t>
-  </si>
-  <si>
-    <t>Глобальные задачи - задачи, которые состоят из множества средних задач</t>
-  </si>
-  <si>
-    <t>Расчистка под прибытие</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>Отправка на фронт</t>
-  </si>
-  <si>
-    <t>Состоит из нескольких задач "Полурейс формирования" и задачи отправка на грузовой фронт</t>
-  </si>
-  <si>
-    <t>Отправка всех вагонов на грузовой фронт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Движение;
-Сцепка;
-Расцепка;
-Движение в цех;
-Ожидание;
-Движение;
-Расцепка;
-Движение кон;
-</t>
-  </si>
-  <si>
-    <t>Состоит из нескольких задач "Полурейс формирования" и задачи прибытие состава на станцию</t>
-  </si>
-  <si>
-    <t>Состоит из нескольких задач "Полурейс формирования" и задачи отправка состава со станции</t>
-  </si>
-  <si>
-    <t>Движение;Терминирование;Ожидание;
-Создание;Движение;
-Расцепка;Движение кон</t>
-  </si>
-  <si>
-    <t>Создание;Движение;
-Расцепка;Движение;
-Терминирование</t>
-  </si>
-  <si>
-    <t>Движение;Сцепка;Движение;Терминирование;Ожидание;Создание;Движение кон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Создание;Движение;Cцепка;Движение;Терминирование
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Движение;Сцепка;Расцепка;Движение;Расцепка;Движение кон
-</t>
+    <t>Движение;Сцепка;Расцепка;Движение;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Создание;Движение;Cцепка;Движение;Терминирование</t>
+  </si>
+  <si>
+    <t>Движение;Ожидание;</t>
+  </si>
+  <si>
+    <t>Создание;Движение;Расцепка;Движение;Терминирование</t>
   </si>
 </sst>
 </file>
@@ -388,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -405,12 +322,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -698,7 +609,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,20 +626,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -736,164 +647,168 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -922,34 +837,34 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -976,79 +891,79 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>47</v>
+      <c r="B2" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>48</v>
+      <c r="B3" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>49</v>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>43</v>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>50</v>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>51</v>
+      <c r="B7" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>44</v>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>45</v>
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>46</v>
+      <c r="A10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -609,7 +609,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>Полурейс формирования</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Создание;Движение;Расцепка;Движение;Терминирование</t>
+  </si>
+  <si>
+    <t>Расстановка</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -324,6 +327,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -606,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,6 +817,14 @@
       </c>
       <c r="B24" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи" sheetId="1" r:id="rId1"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>Полурейс формирования</t>
   </si>
@@ -213,10 +213,6 @@
     <t>Движение в цех;Ожидание;Движение;Сцепка;Движение;Расцепка;Движение кон</t>
   </si>
   <si>
-    <t>Движение;Сцепка;Расцепка;Движение;Сцепка;Проталкивание;
-Расцепка;Движение кон</t>
-  </si>
-  <si>
     <t>Движение;Сцепка;Движение;Сцепка;Проталкивание;Расцепка;
 Движение кон</t>
   </si>
@@ -234,6 +230,16 @@
   </si>
   <si>
     <t>Расстановка</t>
+  </si>
+  <si>
+    <t>Движение;Сцепка;Расцепка;Движение;Сцепка;Проталкивание;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Полрейс формирования всех вагонов с пути на пустой путь</t>
+  </si>
+  <si>
+    <t>Движение;Сцепка;Движение;Расцепка;
+Движение кон</t>
   </si>
 </sst>
 </file>
@@ -615,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -664,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -672,44 +678,44 @@
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>60</v>
@@ -717,113 +723,121 @@
     </row>
     <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="11" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>3</v>
       </c>
     </row>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>Полурейс формирования</t>
   </si>
@@ -240,6 +240,12 @@
   <si>
     <t>Движение;Сцепка;Движение;Расцепка;
 Движение кон</t>
+  </si>
+  <si>
+    <t>Отправка всех вагонов на пустой грузовой фронт</t>
+  </si>
+  <si>
+    <t>Движение;Сцепка;Движение в цех;Ожидание;Движение;Расцепка;Движение кон</t>
   </si>
 </sst>
 </file>
@@ -621,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,99 +751,107 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>3</v>
       </c>
     </row>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Задачи" sheetId="1" r:id="rId1"/>
     <sheet name="Глобальные задачи" sheetId="3" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="Подзадачи" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>Полурейс формирования</t>
   </si>
@@ -95,12 +95,6 @@
     <t>Полурейс формирования на пустой путь</t>
   </si>
   <si>
-    <t>Уборка не всех вагонов с грузового фронта</t>
-  </si>
-  <si>
-    <t>Уборка не всех вагонов с грузового фронта на пустой путь</t>
-  </si>
-  <si>
     <t>Уборка вагонов с грузового фронта на пустой путь</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>Формирование состава</t>
   </si>
   <si>
-    <t>Глобальные задачи - задачи, которые состоят из множества средних задач</t>
-  </si>
-  <si>
     <t>Расчистка под прибытие</t>
   </si>
   <si>
@@ -188,35 +179,18 @@
     <t>Движение;Терминирование;Ожидание;Создание;Движение кон</t>
   </si>
   <si>
-    <t>Движение в цех;Сцепка;Движение;Ожидание;Движение;Сцепка;Проталкивание;Расцепка;Движение кон</t>
-  </si>
-  <si>
     <t>Движение в цех;Ожидание;Движение;Сцепка;Расцепка;Движение в цех;Ожидание;Движение;Расцепка;Движение кон</t>
   </si>
   <si>
-    <t>Движение в цех;Ожидание;
-Движение;Сцепка;Движение в цех;Ожидание;Движение;Сцепка;Проталкивание;Расцепка;Движение кон</t>
-  </si>
-  <si>
     <t>Движение в цех;Ожидание;Движение;Сцепка;Движение в цех;Ожидание;Движение;Расцепка;Движение кон</t>
   </si>
   <si>
     <t>Движение;Сцепка;Расцепка;Движение в цех;Ожидание;Движение;Расцепка;Движение кон</t>
   </si>
   <si>
-    <t>Движение в цех;Ожидание;Движение;Сцепка;Движение;Сцепка;Проталкивание;Расцепка;Движение кон</t>
-  </si>
-  <si>
-    <t>Движение;Сцепка;Движение в цех;Ожидание;Движение;Сцепка;Проталкивание;Расцепка;Движение кон</t>
-  </si>
-  <si>
     <t>Движение в цех;Ожидание;Движение;Сцепка;Движение;Расцепка;Движение кон</t>
   </si>
   <si>
-    <t>Движение;Сцепка;Движение;Сцепка;Проталкивание;Расцепка;
-Движение кон</t>
-  </si>
-  <si>
     <t>Движение;Сцепка;Расцепка;Движение;Расцепка;Движение кон</t>
   </si>
   <si>
@@ -230,9 +204,6 @@
   </si>
   <si>
     <t>Расстановка</t>
-  </si>
-  <si>
-    <t>Движение;Сцепка;Расцепка;Движение;Сцепка;Проталкивание;Расцепка;Движение кон</t>
   </si>
   <si>
     <t>Полрейс формирования всех вагонов с пути на пустой путь</t>
@@ -246,6 +217,44 @@
   </si>
   <si>
     <t>Движение;Сцепка;Движение в цех;Ожидание;Движение;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Тип подзадачи</t>
+  </si>
+  <si>
+    <t>Глобальные задачи - задачи, которые состоят из множества задач</t>
+  </si>
+  <si>
+    <t>Уборка всех вагонов с грузового фронта</t>
+  </si>
+  <si>
+    <t>Уборка всех вагонов с грузового фронта на пустой путь</t>
+  </si>
+  <si>
+    <t>Движение;Сцепка;Расцепка;Движение;Сцепка;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение;Сцепка;Движение;Сцепка;Расцепка;
+Движение кон</t>
+  </si>
+  <si>
+    <t>Движение в цех;Ожидание;Движение;Сцепка;Движение;Сцепка;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение;Сцепка;Движение в цех;Ожидание;Движение;Сцепка;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение в цех;Ожидание;
+Движение;Сцепка;Движение в цех;Ожидание;Движение;Сцепка;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение в цех;Сцепка;Движение;Ожидание;Движение;Сцепка;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение в цех;Ожидание;Движение;Сцепка;Расцепка;Движение;Сцепка;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение в цех;Ожидание;Движение;Сцепка;Расцепка;Движение;Расцепка;Движение кон</t>
   </si>
 </sst>
 </file>
@@ -268,7 +277,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,8 +290,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -303,17 +318,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -337,15 +341,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,19 +654,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>53</v>
+      <c r="B2" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>67</v>
+      <c r="B3" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -668,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -676,71 +682,71 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>64</v>
+      <c r="B6" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -748,55 +754,55 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -812,7 +818,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -820,7 +826,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -828,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -836,7 +842,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -844,14 +850,14 @@
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -866,7 +872,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,34 +888,34 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -921,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,82 +939,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>37</v>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>38</v>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>39</v>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>33</v>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>40</v>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>41</v>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи" sheetId="1" r:id="rId1"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,52 +869,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
     </row>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>Полурейс формирования</t>
   </si>
@@ -143,12 +143,6 @@
     <t>Состав/локомотив покидает модель и освобождает коллекцию агентов</t>
   </si>
   <si>
-    <t>Формирование состава</t>
-  </si>
-  <si>
-    <t>Расчистка под прибытие</t>
-  </si>
-  <si>
     <t>Описание</t>
   </si>
   <si>
@@ -159,12 +153,6 @@
   </si>
   <si>
     <t>Отправка всех вагонов на грузовой фронт</t>
-  </si>
-  <si>
-    <t>Состоит из нескольких задач "Полурейс формирования" и задачи прибытие состава на станцию</t>
-  </si>
-  <si>
-    <t>Состоит из нескольких задач "Полурейс формирования" и задачи отправка состава со станции</t>
   </si>
   <si>
     <t>Движение;Сцепка;Движение;Терминирование;Ожидание;Создание;Движение кон</t>
@@ -222,9 +210,6 @@
     <t>Тип подзадачи</t>
   </si>
   <si>
-    <t>Глобальные задачи - задачи, которые состоят из множества задач</t>
-  </si>
-  <si>
     <t>Уборка всех вагонов с грузового фронта</t>
   </si>
   <si>
@@ -255,6 +240,38 @@
   </si>
   <si>
     <t>Движение в цех;Ожидание;Движение;Сцепка;Расцепка;Движение;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Уборка</t>
+  </si>
+  <si>
+    <t>Прибытие</t>
+  </si>
+  <si>
+    <t>Отправка со станции</t>
+  </si>
+  <si>
+    <t>Уборка всех вагонов с грузового фронта;
+Уборка вагонов с грузового фронта на пустой путь;
+Уборка вагонов с грузового фронта;
+Уборка всех вагонов с грузового фронта на пустой путь;</t>
+  </si>
+  <si>
+    <t>Прибытие состава на станцию solo;
+Прибытие состава на станцию</t>
+  </si>
+  <si>
+    <t>Отправка вагонов на грузовой фронт;
+Отправка всех вагонов на пустой грузовой фронт;
+Отправка всех вагонов на грузовой фронт;
+Отправка всех вагонов с грузового фронта на пустой грузовой фронт;
+Отправка всех вагонов с грузового фронта на грузовой фронт;
+Отправка с грузового фронта на пустой грузовой фронт;
+Отправка с грузового фронта на грузовой фронт</t>
+  </si>
+  <si>
+    <t>Отправка состава со станции solo;
+Отправка состава со станции</t>
   </si>
 </sst>
 </file>
@@ -636,7 +653,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +675,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -666,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -674,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -682,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -690,23 +707,23 @@
         <v>23</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -714,15 +731,15 @@
         <v>0</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -730,7 +747,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -738,15 +755,15 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -754,23 +771,23 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -778,7 +795,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -786,7 +803,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -794,7 +811,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -802,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -818,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -826,7 +843,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -834,7 +851,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -842,7 +859,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -850,12 +867,12 @@
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>3</v>
@@ -869,54 +886,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>44</v>
+        <v>73</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +965,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>Полурейс формирования</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>Расстановка</t>
-  </si>
-  <si>
-    <t>Полрейс формирования всех вагонов с пути на пустой путь</t>
   </si>
   <si>
     <t>Движение;Сцепка;Движение;Расцепка;
@@ -231,9 +228,6 @@
   <si>
     <t>Движение в цех;Ожидание;
 Движение;Сцепка;Движение в цех;Ожидание;Движение;Сцепка;Расцепка;Движение кон</t>
-  </si>
-  <si>
-    <t>Движение в цех;Сцепка;Движение;Ожидание;Движение;Сцепка;Расцепка;Движение кон</t>
   </si>
   <si>
     <t>Движение в цех;Ожидание;Движение;Сцепка;Расцепка;Движение;Сцепка;Расцепка;Движение кон</t>
@@ -272,6 +266,18 @@
   <si>
     <t>Отправка состава со станции solo;
 Отправка состава со станции</t>
+  </si>
+  <si>
+    <t>Движение в цех;Ожидание;Движение;Сцепка;Расцепка;Движение в цех;Ожидание;Движение;Сцепка;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение;Сцепка;Расцепка;Движение в цех;Ожидание;Движение;Сцепка;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Отправка вагонов на пустой грузовой фронт</t>
+  </si>
+  <si>
+    <t>Полурейс формирования всех вагонов с пути на пустой путь</t>
   </si>
 </sst>
 </file>
@@ -294,7 +300,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +316,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -370,6 +394,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -650,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,7 +690,7 @@
     <col min="2" max="2" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -670,7 +698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -678,7 +706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
@@ -686,195 +714,229 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D6" s="12"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="D13" s="12"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -888,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -914,7 +976,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>42</v>
@@ -922,26 +984,26 @@
     </row>
     <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +1027,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -158,9 +158,6 @@
     <t>Движение;Сцепка;Движение;Терминирование;Ожидание;Создание;Движение кон</t>
   </si>
   <si>
-    <t>Полрейс формирования всех вагонов с пути</t>
-  </si>
-  <si>
     <t>Движение;Терминирование;Ожидание;Создание;Движение;Расцепка;Движение кон</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>Полурейс формирования всех вагонов с пути на пустой путь</t>
+  </si>
+  <si>
+    <t>Полурейс формирования всех вагонов с пути</t>
   </si>
 </sst>
 </file>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,7 +703,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -711,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -728,7 +728,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="12"/>
     </row>
@@ -737,27 +737,27 @@
         <v>23</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="14"/>
@@ -767,17 +767,17 @@
         <v>0</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="15"/>
@@ -787,7 +787,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="15"/>
@@ -797,27 +797,27 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
@@ -827,17 +827,17 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
@@ -847,7 +847,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
@@ -857,7 +857,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -881,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -897,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -905,7 +905,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -913,7 +913,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -921,7 +921,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -929,12 +929,12 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>3</v>
@@ -976,7 +976,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>42</v>
@@ -984,26 +984,26 @@
     </row>
     <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1027,7 +1027,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>Полурейс формирования</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>Полурейс формирования всех вагонов с пути</t>
+  </si>
+  <si>
+    <t>Расчистка</t>
+  </si>
+  <si>
+    <t>Состоит из нескольких задач "Полурейс формирования"</t>
   </si>
 </sst>
 </file>
@@ -680,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -948,10 +954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,6 +1010,14 @@
       </c>
       <c r="B5" s="8" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи" sheetId="1" r:id="rId1"/>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,10 +779,10 @@
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="12"/>
@@ -956,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9768"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>Полурейс формирования</t>
   </si>
@@ -284,6 +284,18 @@
   </si>
   <si>
     <t>Состоит из нескольких задач "Полурейс формирования"</t>
+  </si>
+  <si>
+    <t>Отправка не всего состава со станции</t>
+  </si>
+  <si>
+    <t>Создание;Движение;Cцепка;Расцепка;Движение;Терминирование</t>
+  </si>
+  <si>
+    <t>Отправка не всего состава со станции solo</t>
+  </si>
+  <si>
+    <t>Движение;Сцепка;Расцепка;Движение;Терминирование;Ожидание;Создание;Движение кон</t>
   </si>
 </sst>
 </file>
@@ -684,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,227 +734,244 @@
     </row>
     <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>56</v>
+    </row>
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>0</v>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>58</v>
+      <c r="A16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>3</v>
       </c>
     </row>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>Полурейс формирования</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>Движение;Сцепка;Расцепка;Движение;Расцепка;Движение кон</t>
-  </si>
-  <si>
-    <t>Создание;Движение;Cцепка;Движение;Терминирование</t>
   </si>
   <si>
     <t>Движение;Ожидание;</t>
@@ -289,13 +286,19 @@
     <t>Отправка не всего состава со станции</t>
   </si>
   <si>
-    <t>Создание;Движение;Cцепка;Расцепка;Движение;Терминирование</t>
-  </si>
-  <si>
     <t>Отправка не всего состава со станции solo</t>
   </si>
   <si>
     <t>Движение;Сцепка;Расцепка;Движение;Терминирование;Ожидание;Создание;Движение кон</t>
+  </si>
+  <si>
+    <t>Создание;Движение;Сцепка;Расцепка;Движение;Терминирование</t>
+  </si>
+  <si>
+    <t>Перемещение</t>
+  </si>
+  <si>
+    <t>Создание;Движение;Сцепка;Движение;Терминирование</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -379,11 +382,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -416,6 +430,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -696,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,15 +749,15 @@
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -754,16 +774,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="12"/>
     </row>
@@ -779,20 +799,20 @@
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
@@ -802,17 +822,17 @@
         <v>0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="15"/>
@@ -822,7 +842,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="15"/>
@@ -832,14 +852,14 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>50</v>
@@ -849,7 +869,7 @@
     </row>
     <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>49</v>
@@ -862,17 +882,17 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
@@ -882,7 +902,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
@@ -900,7 +920,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -916,7 +936,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -948,7 +968,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -956,7 +976,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -969,10 +989,18 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1039,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>42</v>
@@ -1019,34 +1047,34 @@
     </row>
     <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>Полурейс формирования</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>Создание;Движение;Сцепка;Движение;Терминирование</t>
+  </si>
+  <si>
+    <t>Движение в цех;Ожидание;Движение;Сцепка;Движение;Сцепка;Движение;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Движение в цех;Ожидание;Движение;Сцепка;Движение;Сцепка;Движение;Сцепка;Расцепка;Движение кон</t>
+  </si>
+  <si>
+    <t>Полная Уборка вагонов с пути на пустой путь</t>
+  </si>
+  <si>
+    <t>Полная Уборка вагонов с пути</t>
   </si>
 </sst>
 </file>
@@ -716,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,169 +849,189 @@
       <c r="D12" s="12"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>24</v>
+    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>8</v>
+      <c r="A14" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>57</v>
+      <c r="A18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B33" s="17" t="s">
         <v>4</v>
       </c>
     </row>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t>Полурейс формирования</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>Полная Уборка вагонов с пути</t>
+  </si>
+  <si>
+    <t>30 минут пересменка + 20 минут дорога туда/обратно. 2 раза в сутки (6:45 до 7:15) и (18:45 до 19:15).  + время на поездку до края станции. Добавить возможность изменять время пересменки</t>
   </si>
 </sst>
 </file>
@@ -730,14 +733,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -870,7 +874,7 @@
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -890,7 +894,7 @@
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -900,7 +904,7 @@
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -987,16 +991,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="C28" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1004,7 +1011,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="3" t="s">

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -65,9 +65,6 @@
     <t>Обслуживание стрелки</t>
   </si>
   <si>
-    <t>Экипировка локомотива</t>
-  </si>
-  <si>
     <t>Пересменка</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>30 минут пересменка + 20 минут дорога туда/обратно. 2 раза в сутки (6:45 до 7:15) и (18:45 до 19:15).  + время на поездку до края станции. Добавить возможность изменять время пересменки</t>
+  </si>
+  <si>
+    <t>Экипировка</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,10 +754,10 @@
     </row>
     <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -765,23 +765,23 @@
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="12"/>
     </row>
@@ -790,45 +790,45 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
@@ -838,47 +838,47 @@
         <v>0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="15"/>
@@ -888,27 +888,27 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
@@ -918,53 +918,53 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -972,7 +972,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -980,55 +980,55 @@
         <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>3</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>4</v>
@@ -1070,50 +1070,50 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1137,10 +1137,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1148,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1156,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1164,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1172,23 +1172,23 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1196,23 +1196,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/motmos_zd/Справочники/Задачи.xlsx
+++ b/motmos_zd/Справочники/Задачи.xlsx
@@ -445,11 +445,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +769,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -777,7 +777,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -786,7 +786,7 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -795,7 +795,7 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -984,7 +984,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -992,7 +992,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1019,7 +1019,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1035,10 +1035,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>4</v>
       </c>
     </row>
